--- a/planning/assets/formatsXlsx/Materia_prima.xlsx
+++ b/planning/assets/formatsXlsx/Materia_prima.xlsx
@@ -145,13 +145,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -171,7 +171,13 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -185,17 +191,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -209,18 +206,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -228,12 +215,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -248,9 +231,32 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <top/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -288,11 +294,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="3">
-    <tableColumn id="1" name="referencia" dataDxfId="2"/>
-    <tableColumn id="2" name="material" dataDxfId="1"/>
-    <tableColumn id="3" name="unidad" dataDxfId="0"/>
+    <tableColumn id="1" name="referencia" dataDxfId="3"/>
+    <tableColumn id="2" name="material" dataDxfId="2"/>
+    <tableColumn id="3" name="unidad" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/planning/assets/formatsXlsx/Materia_prima.xlsx
+++ b/planning/assets/formatsXlsx/Materia_prima.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>referencia</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>unidad</t>
+  </si>
+  <si>
+    <t>cantidad</t>
   </si>
 </sst>
 </file>
@@ -57,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -130,11 +133,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,20 +170,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <strike val="0"/>
@@ -171,12 +202,16 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -191,7 +226,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -206,7 +240,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -231,7 +264,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -257,6 +289,23 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <top/>
       </border>
     </dxf>
     <dxf>
@@ -294,11 +343,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <tableColumns count="4">
     <tableColumn id="1" name="referencia" dataDxfId="3"/>
     <tableColumn id="2" name="material" dataDxfId="2"/>
     <tableColumn id="3" name="unidad" dataDxfId="1"/>
+    <tableColumn id="4" name="cantidad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -600,9 +650,10 @@
     <col min="1" max="1" width="34.140625" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -612,31 +663,39 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
+      <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/assets/formatsXlsx/Materia_prima.xlsx
+++ b/planning/assets/formatsXlsx/Materia_prima.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>referencia</t>
   </si>
@@ -27,12 +27,15 @@
   <si>
     <t>cantidad</t>
   </si>
+  <si>
+    <t>categoria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +53,15 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,13 +195,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <top/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -343,12 +378,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" name="referencia" dataDxfId="3"/>
-    <tableColumn id="2" name="material" dataDxfId="2"/>
-    <tableColumn id="3" name="unidad" dataDxfId="1"/>
-    <tableColumn id="4" name="cantidad" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" name="referencia" dataDxfId="4"/>
+    <tableColumn id="2" name="material" dataDxfId="3"/>
+    <tableColumn id="3" name="unidad" dataDxfId="2"/>
+    <tableColumn id="4" name="cantidad" dataDxfId="1"/>
+    <tableColumn id="5" name="categoria" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -651,9 +687,10 @@
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -666,38 +703,51 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
+      <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
+      <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"Insumos,Materiales"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
